--- a/Data/Exports/Фактура8.pdf_1-2.xlsx
+++ b/Data/Exports/Фактура8.pdf_1-2.xlsx
@@ -392,19 +392,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура8.pdf_1-2.xlsx
+++ b/Data/Exports/Фактура8.pdf_1-2.xlsx
@@ -392,7 +392,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
